--- a/PHP_learning_notes.xlsx
+++ b/PHP_learning_notes.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12240" windowHeight="5292"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12240" windowHeight="5292" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="PHP 概述" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -23,9 +24,18 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>www.LarryUllman.com</t>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -38,6 +48,25 @@
       <sz val="6"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -59,17 +88,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -429,16 +465,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A40"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P29" sqref="P29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="40" spans="1:1" ht="16.2" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="A40" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>